--- a/HW2/part_3/results/ec_pdc_20_node_57_motif.xlsx
+++ b/HW2/part_3/results/ec_pdc_20_node_57_motif.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Motif_Id</t>
   </si>
@@ -22,34 +22,61 @@
     <t>Triplet</t>
   </si>
   <si>
-    <t>[61, 57, 12]</t>
-  </si>
-  <si>
-    <t>[62, 57, 12]</t>
-  </si>
-  <si>
-    <t>[48, 57, 9]</t>
-  </si>
-  <si>
-    <t>[51, 57, 9]</t>
-  </si>
-  <si>
-    <t>[56, 57, 9]</t>
-  </si>
-  <si>
-    <t>[56, 57, 10]</t>
-  </si>
-  <si>
-    <t>[56, 57, 12]</t>
+    <t>[57, 47, 43]</t>
+  </si>
+  <si>
+    <t>[57, 47, 46]</t>
+  </si>
+  <si>
+    <t>[61, 57, 46]</t>
+  </si>
+  <si>
+    <t>[62, 57, 46]</t>
+  </si>
+  <si>
+    <t>[50, 57, 43]</t>
+  </si>
+  <si>
+    <t>[57, 43, 64]</t>
+  </si>
+  <si>
+    <t>[62, 57, 64]</t>
+  </si>
+  <si>
+    <t>[48, 57, 43]</t>
+  </si>
+  <si>
+    <t>[49, 57, 43]</t>
+  </si>
+  <si>
+    <t>[56, 57, 43]</t>
+  </si>
+  <si>
+    <t>[57, 58, 16]</t>
+  </si>
+  <si>
+    <t>[57, 58, 46]</t>
+  </si>
+  <si>
+    <t>[61, 56, 57]</t>
+  </si>
+  <si>
+    <t>[61, 57, 58]</t>
+  </si>
+  <si>
+    <t>[62, 57, 58]</t>
+  </si>
+  <si>
+    <t>[49, 57, 56]</t>
+  </si>
+  <si>
+    <t>[50, 49, 57]</t>
   </si>
   <si>
     <t>[48, 49, 57]</t>
   </si>
   <si>
-    <t>[49, 50, 57]</t>
-  </si>
-  <si>
-    <t>[57, 9, 10]</t>
+    <t>[48, 56, 57]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -514,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -525,10 +552,109 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
